--- a/output/fit_clients/fit_round_6.xlsx
+++ b/output/fit_clients/fit_round_6.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D2" t="n">
-        <v>4631561151.493849</v>
+        <v>7740068829.543371</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001938892638358515</v>
+        <v>0.001351815838892293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005655522866528816</v>
+        <v>0.1607492487987865</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.178483837679869e-06</v>
+        <v>0.2396993005952918</v>
       </c>
       <c r="I2" t="n">
-        <v>3.064078148206075</v>
+        <v>6.511691318117026</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>450</v>
+        <v>555</v>
       </c>
       <c r="D3" t="n">
-        <v>3215255551.869132</v>
+        <v>6669316274.588624</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004034955675476349</v>
+        <v>0.004891641142873002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008146755235294638</v>
+        <v>0.2179775842299023</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.697600664148896e-06</v>
+        <v>0.442574899285595</v>
       </c>
       <c r="I3" t="n">
-        <v>3.071410083770752</v>
+        <v>7.608397224326209</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +547,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D4" t="n">
-        <v>1914563032.738912</v>
+        <v>7739614304.914721</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001761175115914675</v>
+        <v>0.002660625459979935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001368139860223241</v>
+        <v>0.19189510891478</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.850895931304549e-06</v>
+        <v>0.3501120003559254</v>
       </c>
       <c r="I4" t="n">
-        <v>3.059108344713847</v>
+        <v>7.772903110257587</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +578,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>450</v>
+        <v>554</v>
       </c>
       <c r="D5" t="n">
-        <v>4494078122.686357</v>
+        <v>6890098408.629678</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003808431903850573</v>
+        <v>0.004016583157079982</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005828536862270313</v>
+        <v>0.2106126754564899</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.214536065296254e-06</v>
+        <v>0.4164661497395946</v>
       </c>
       <c r="I5" t="n">
-        <v>3.057428574562073</v>
+        <v>7.594688400498594</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D6" t="n">
-        <v>649032361.169804</v>
+        <v>9897572494.784422</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00150975763253524</v>
+        <v>0.004860331894281408</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004035838822087175</v>
+        <v>0.123591429175649</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>8.409780908957555e-06</v>
+        <v>0.1079740836152501</v>
       </c>
       <c r="I6" t="n">
-        <v>3.065246709187825</v>
+        <v>6.402020727496107</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" t="n">
-        <v>1439398421.84168</v>
+        <v>8921667767.571482</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001124963951718809</v>
+        <v>0.00476053254405719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001819781069822591</v>
+        <v>0.1318258133613668</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.792014689913156e-06</v>
+        <v>0.1371651409636553</v>
       </c>
       <c r="I7" t="n">
-        <v>3.065846888224284</v>
+        <v>6.155261898599041</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +671,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="D8" t="n">
-        <v>2429573859.261202</v>
+        <v>5856376946.309513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004399902958873724</v>
+        <v>0.002545926378417389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001078127339086748</v>
+        <v>0.261206506006069</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.246575027738085e-06</v>
+        <v>0.5958222953527486</v>
       </c>
       <c r="I8" t="n">
-        <v>3.062208239237467</v>
+        <v>8.005953115327038</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +702,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D9" t="n">
-        <v>128668985.2499559</v>
+        <v>3781685745.939121</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003685636824709343</v>
+        <v>0.004667730463380518</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02035758652259129</v>
+        <v>0.3075372302547539</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.242063423177056e-05</v>
+        <v>0.7600656434931302</v>
       </c>
       <c r="I9" t="n">
-        <v>3.067339563369751</v>
+        <v>6.484592842698097</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +733,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D10" t="n">
-        <v>678282383.9485012</v>
+        <v>10168834826.82432</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003095855959157138</v>
+        <v>0.001195970560627643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003861798657885943</v>
+        <v>0.1424472611334928</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>8.047120328390954e-06</v>
+        <v>0.1748183866765516</v>
       </c>
       <c r="I10" t="n">
-        <v>3.058467785517375</v>
+        <v>7.58097957667098</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +764,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="D11" t="n">
-        <v>1824765719.917668</v>
+        <v>7331879564.225614</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000812304082011366</v>
+        <v>0.002341589887010742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00143546646641202</v>
+        <v>0.1468340117386675</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.991189444586746e-06</v>
+        <v>0.1903695056917305</v>
       </c>
       <c r="I11" t="n">
-        <v>3.059728399912517</v>
+        <v>5.437516225673058</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +795,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D12" t="n">
-        <v>3712068996.921957</v>
+        <v>4569844138.940948</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001846419463877546</v>
+        <v>0.001210634708075548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0007056415174857998</v>
+        <v>0.2774240699363998</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.4703983047695e-06</v>
+        <v>0.6533138852597166</v>
       </c>
       <c r="I12" t="n">
-        <v>3.074749851226807</v>
+        <v>6.635070732565559</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +826,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D13" t="n">
-        <v>2641715195.622495</v>
+        <v>6889315824.302145</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001771264182260648</v>
+        <v>0.003799180704273011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009915489770965891</v>
+        <v>0.1798395517925761</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.066165182872897e-06</v>
+        <v>0.3073748081890104</v>
       </c>
       <c r="I13" t="n">
-        <v>3.068025739987691</v>
+        <v>6.484273670461796</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +857,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D14" t="n">
-        <v>4421137649.298481</v>
+        <v>4113835067.405505</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003452755306270073</v>
+        <v>0.002083211896376473</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005924696781190762</v>
+        <v>0.3368286008787173</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.23457363086796e-06</v>
+        <v>0.8639041407520445</v>
       </c>
       <c r="I14" t="n">
-        <v>3.062458658218384</v>
+        <v>7.251967804808224</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +888,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D15" t="n">
-        <v>472000757.0176398</v>
+        <v>10221616797.4713</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003634701069172503</v>
+        <v>0.003835257473186202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005549546184100944</v>
+        <v>0.143761776548259</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.156400679259393e-05</v>
+        <v>0.1794783702275204</v>
       </c>
       <c r="I15" t="n">
-        <v>3.073607095082601</v>
+        <v>7.690650167291897</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +919,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>450</v>
+        <v>597</v>
       </c>
       <c r="D16" t="n">
-        <v>1590104679.135227</v>
+        <v>5423504703.023002</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001000698564808018</v>
+        <v>0.001409256946904231</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001647306642368064</v>
+        <v>0.288333082688832</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3.432616752772462e-06</v>
+        <v>0.6919865546043241</v>
       </c>
       <c r="I16" t="n">
-        <v>3.071335212389628</v>
+        <v>8.18416782508603</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +950,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D17" t="n">
-        <v>2923716675.120843</v>
+        <v>7859153154.821445</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00443580115018765</v>
+        <v>0.002632533958853625</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0008959110238996518</v>
+        <v>0.147648194040871</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.866877186393536e-06</v>
+        <v>0.1932557983081111</v>
       </c>
       <c r="I17" t="n">
-        <v>3.078906480471293</v>
+        <v>5.861670544511991</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +981,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D18" t="n">
-        <v>3159157060.400885</v>
+        <v>7685869473.619918</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00474565561140208</v>
+        <v>0.002530237705619667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008291420622397323</v>
+        <v>0.1588155698180366</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.727745678959322e-06</v>
+        <v>0.2328443697653238</v>
       </c>
       <c r="I18" t="n">
-        <v>3.079524803161621</v>
+        <v>6.388311903668493</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1012,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="D19" t="n">
-        <v>2651005561.576064</v>
+        <v>10356392120.47606</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002338189809745013</v>
+        <v>0.003725842327384357</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0009880741247644657</v>
+        <v>0.1269683268751662</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.058924371707642e-06</v>
+        <v>0.1199452537942272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.050680589675903</v>
+        <v>6.881829561462625</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1043,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D20" t="n">
-        <v>4952709980.820808</v>
+        <v>8617964130.976051</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001143123273030613</v>
+        <v>0.002579420329773804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005288801504920525</v>
+        <v>0.1778080213274745</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.102067349269031e-06</v>
+        <v>0.3001729918814022</v>
       </c>
       <c r="I20" t="n">
-        <v>3.068020335833232</v>
+        <v>8.019661939154652</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1074,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="D21" t="n">
-        <v>3792716796.773875</v>
+        <v>5790494717.823694</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006432460950695578</v>
+        <v>0.004981914292164171</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0006906368548867348</v>
+        <v>0.2442745687421361</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.439131960737032e-06</v>
+        <v>0.5357982376280265</v>
       </c>
       <c r="I21" t="n">
-        <v>3.062006306648254</v>
+        <v>7.402764866911987</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1105,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>450</v>
+        <v>548</v>
       </c>
       <c r="D22" t="n">
-        <v>128519285.7007198</v>
+        <v>6127207573.032763</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004340489530750181</v>
+        <v>0.003435409090929079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02038129908455699</v>
+        <v>0.2342707836955999</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.247004588067742e-05</v>
+        <v>0.5003346186847841</v>
       </c>
       <c r="I22" t="n">
-        <v>450</v>
+        <v>7.512435457532906</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1136,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D23" t="n">
-        <v>3328936270.761126</v>
+        <v>5441968694.546422</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001084603850167031</v>
+        <v>0.003950282358147591</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0007868549551419032</v>
+        <v>0.2300763731431861</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.639628853277356e-06</v>
+        <v>0.4854653490203165</v>
       </c>
       <c r="I23" t="n">
-        <v>450</v>
+        <v>6.55281778959987</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1167,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="D24" t="n">
-        <v>381062351.8244779</v>
+        <v>6934595307.663625</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000841316538259083</v>
+        <v>0.002757449512240559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006873914432792153</v>
+        <v>0.1983071381945315</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.432369252467005e-05</v>
+        <v>0.3728427729557178</v>
       </c>
       <c r="I24" t="n">
-        <v>450</v>
+        <v>7.197132509497766</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1198,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="D25" t="n">
-        <v>4270985989.805146</v>
+        <v>3933991853.013903</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0009375163623674614</v>
+        <v>0.003374091722585616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0006132986636464016</v>
+        <v>0.3362467436191015</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1.277976554662143e-06</v>
+        <v>0.8618414450785185</v>
       </c>
       <c r="I25" t="n">
-        <v>450</v>
+        <v>6.92295603294547</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1229,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D26" t="n">
-        <v>1992078431.92715</v>
+        <v>8758415789.004623</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0009962347500754025</v>
+        <v>0.001619619687924144</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001314903046997996</v>
+        <v>0.1250117654124792</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.739962379383398e-06</v>
+        <v>0.1130092041061354</v>
       </c>
       <c r="I26" t="n">
-        <v>450</v>
+        <v>4.955573214460115</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1260,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>450</v>
+        <v>559</v>
       </c>
       <c r="D27" t="n">
-        <v>4193882394.649139</v>
+        <v>9140374971.382927</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003494035630699183</v>
+        <v>0.001976772246546785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0006245740231872045</v>
+        <v>0.1601946325598568</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.301471869412804e-06</v>
+        <v>0.2377331748873081</v>
       </c>
       <c r="I27" t="n">
-        <v>450</v>
+        <v>7.663232519636669</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1291,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D28" t="n">
-        <v>2722322212.960444</v>
+        <v>7621700802.264795</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001329494710253971</v>
+        <v>0.004708951780596967</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0009621895554940542</v>
+        <v>0.1512171141194003</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.004986747812564e-06</v>
+        <v>0.2059076916779784</v>
       </c>
       <c r="I28" t="n">
-        <v>450</v>
+        <v>6.122725552982754</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1322,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="D29" t="n">
-        <v>703231843.1428608</v>
+        <v>8842402758.383181</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002081391905835109</v>
+        <v>0.003648709149239378</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003724788667551668</v>
+        <v>0.154336126422897</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.761622306333235e-06</v>
+        <v>0.2169646529477323</v>
       </c>
       <c r="I29" t="n">
-        <v>450</v>
+        <v>7.142297214187306</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1353,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>450</v>
+        <v>588</v>
       </c>
       <c r="D30" t="n">
-        <v>2651743904.544246</v>
+        <v>9871263363.919779</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004898620322817088</v>
+        <v>0.003692672530015469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0009877990086113511</v>
+        <v>0.1560287942098226</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.058351091486552e-06</v>
+        <v>0.2229651942542264</v>
       </c>
       <c r="I30" t="n">
-        <v>450</v>
+        <v>8.060788410637498</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1384,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="D31" t="n">
-        <v>4401565284.951936</v>
+        <v>7132994698.470087</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003326939142700229</v>
+        <v>0.004953000027454639</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0005951042028060259</v>
+        <v>0.2063785607909874</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.240063388113773e-06</v>
+        <v>0.4014561281966622</v>
       </c>
       <c r="I31" t="n">
-        <v>450</v>
+        <v>7.704358991119513</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1415,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D32" t="n">
-        <v>1638027954.409359</v>
+        <v>7527757604.706428</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001537645572784908</v>
+        <v>0.002302539363220608</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001599111903401246</v>
+        <v>0.1558879525114258</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3.332189750222907e-06</v>
+        <v>0.2224659076042206</v>
       </c>
       <c r="I32" t="n">
-        <v>450</v>
+        <v>6.141553074771426</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="D33" t="n">
-        <v>335125820.7473602</v>
+        <v>6263727578.12835</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005005090786617887</v>
+        <v>0.003042729667140085</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007816139007607735</v>
+        <v>0.175219052283233</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.628707674057806e-05</v>
+        <v>0.290995044613071</v>
       </c>
       <c r="I33" t="n">
-        <v>450</v>
+        <v>5.55122226590202</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>450</v>
+        <v>537</v>
       </c>
       <c r="D34" t="n">
-        <v>2512925982.691546</v>
+        <v>4999041511.994075</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00422366396888548</v>
+        <v>0.00168172816104123</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0010423665551798</v>
+        <v>0.2813764251857381</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.172057592565965e-06</v>
+        <v>0.6673250640124417</v>
       </c>
       <c r="I34" t="n">
-        <v>450</v>
+        <v>7.361638395429143</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +1508,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D35" t="n">
-        <v>463109970.3158004</v>
+        <v>5776846448.644667</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0008675228470349849</v>
+        <v>0.002295289182122432</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005656086389618875</v>
+        <v>0.2149253699293488</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1.178601263224679e-05</v>
+        <v>0.431754738278095</v>
       </c>
       <c r="I35" t="n">
-        <v>450</v>
+        <v>6.497982494289411</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +1539,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="D36" t="n">
-        <v>4592921599.538335</v>
+        <v>4607128795.167841</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002421597028799308</v>
+        <v>0.0016731837889433</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0005703101921581445</v>
+        <v>0.3354453866410085</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.188398243246761e-06</v>
+        <v>0.8590006184937411</v>
       </c>
       <c r="I36" t="n">
-        <v>450</v>
+        <v>8.088206058292727</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +1570,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D37" t="n">
-        <v>1470009023.493147</v>
+        <v>8287500461.689366</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003286525383607157</v>
+        <v>0.003464404985076307</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001781887021193657</v>
+        <v>0.1450738996103678</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3.713052010586456e-06</v>
+        <v>0.1841298728402619</v>
       </c>
       <c r="I37" t="n">
-        <v>450</v>
+        <v>6.292350136875189</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +1601,25 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="D38" t="n">
-        <v>3788004136.683301</v>
+        <v>11503174219.88932</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001367976052532208</v>
+        <v>0.001880144056847697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000691496076953465</v>
+        <v>0.09313346816460788</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.440922386383814e-06</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>450</v>
+        <v>5.747238529568443</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +1632,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D39" t="n">
-        <v>1208119670.546403</v>
+        <v>8690267475.292746</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0005897059007540051</v>
+        <v>0.003428804882655717</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002168154417033301</v>
+        <v>0.1341303421688679</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>4.517946436376492e-06</v>
+        <v>0.1453347418789851</v>
       </c>
       <c r="I39" t="n">
-        <v>450</v>
+        <v>6.100426603288582</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="D40" t="n">
-        <v>4977344800.472629</v>
+        <v>6048679935.086044</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004677941756631887</v>
+        <v>0.003944419583593229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0005262625164628485</v>
+        <v>0.2303834051322104</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.096612788357192e-06</v>
+        <v>0.4865537835889814</v>
       </c>
       <c r="I40" t="n">
-        <v>450</v>
+        <v>7.293094276291069</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +1694,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="D41" t="n">
-        <v>1741391679.735254</v>
+        <v>8567162453.226637</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001301468293710195</v>
+        <v>0.001532106934649001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001504193473807242</v>
+        <v>0.1495106129938721</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3.134401079193903e-06</v>
+        <v>0.1998581109082579</v>
       </c>
       <c r="I41" t="n">
-        <v>450</v>
+        <v>6.703614851703633</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +1725,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D42" t="n">
-        <v>4012889470.161499</v>
+        <v>5879390793.375863</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0007232069026177758</v>
+        <v>0.001144279356828981</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0006527441185402455</v>
+        <v>0.2071671016276556</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1.360172015911965e-06</v>
+        <v>0.4042515213026413</v>
       </c>
       <c r="I42" t="n">
-        <v>450</v>
+        <v>6.374603079840877</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +1756,25 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="D43" t="n">
-        <v>1659278619.147779</v>
+        <v>11248818515.99498</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001180145356046854</v>
+        <v>0.004111428154496694</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001578631804069978</v>
+        <v>0.113402392276676</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>3.289513826836902e-06</v>
+        <v>0.07185374313383171</v>
       </c>
       <c r="I43" t="n">
-        <v>450</v>
+        <v>6.676197204048403</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +1787,25 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D44" t="n">
-        <v>3462762376.054428</v>
+        <v>10007770549.9163</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006504033577731836</v>
+        <v>0.001635809515497397</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0007564452063224186</v>
+        <v>0.1504979797935712</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.576261772394766e-06</v>
+        <v>0.2033583460471425</v>
       </c>
       <c r="I44" t="n">
-        <v>450</v>
+        <v>7.882573700878505</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +1818,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>450</v>
+        <v>598</v>
       </c>
       <c r="D45" t="n">
-        <v>4748089150.962017</v>
+        <v>8892071528.386438</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00101477585910925</v>
+        <v>0.001034802239271949</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0005516724553222178</v>
+        <v>0.1761563899929895</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.149561389165485e-06</v>
+        <v>0.2943179256231389</v>
       </c>
       <c r="I45" t="n">
-        <v>450</v>
+        <v>8.197876648913645</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +1849,25 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D46" t="n">
-        <v>3620875686.984382</v>
+        <v>10285394919.31277</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001103250198622601</v>
+        <v>0.002323942061119299</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0007234134022926201</v>
+        <v>0.1044150378692272</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.507430917852719e-06</v>
+        <v>0.03999339122393224</v>
       </c>
       <c r="I46" t="n">
-        <v>450</v>
+        <v>5.097181108262803</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +1880,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D47" t="n">
-        <v>253949194.421731</v>
+        <v>10213521856.5302</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004984447528964988</v>
+        <v>0.004545676530028684</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01031462220608585</v>
+        <v>0.1218199037978748</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>2.149335410451056e-05</v>
+        <v>0.101693990565128</v>
       </c>
       <c r="I47" t="n">
-        <v>450</v>
+        <v>6.511691318117026</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +1911,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D48" t="n">
-        <v>1710334872.429317</v>
+        <v>7740430256.842316</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001695047642757514</v>
+        <v>0.004913119409870457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001531507099705851</v>
+        <v>0.1979661464742807</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>3.191316535871564e-06</v>
+        <v>0.3716339504576812</v>
       </c>
       <c r="I48" t="n">
-        <v>450</v>
+        <v>8.019661939154652</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +1942,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D49" t="n">
-        <v>2534992985.760207</v>
+        <v>3830336679.004224</v>
       </c>
       <c r="E49" t="n">
-        <v>0.004970094567237064</v>
+        <v>0.003272627013291664</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001033292799906696</v>
+        <v>0.3008956383175237</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>2.153149926221442e-06</v>
+        <v>0.7365210666611846</v>
       </c>
       <c r="I49" t="n">
-        <v>450</v>
+        <v>6.701807101567586</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +1973,25 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D50" t="n">
-        <v>359280883.8736283</v>
+        <v>6736053839.304695</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004117087719275794</v>
+        <v>0.004131512628833012</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007290646726758029</v>
+        <v>0.2057075764321726</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1.51920689501012e-05</v>
+        <v>0.3990774751661149</v>
       </c>
       <c r="I50" t="n">
-        <v>450</v>
+        <v>7.251967804808224</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2004,25 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="D51" t="n">
-        <v>4219535299.831759</v>
+        <v>9027052310.199062</v>
       </c>
       <c r="E51" t="n">
-        <v>0.003828359196453526</v>
+        <v>0.002903440489956149</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0006207768898400826</v>
+        <v>0.1384116306259056</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1.293559497056249e-06</v>
+        <v>0.1605119954605237</v>
       </c>
       <c r="I51" t="n">
-        <v>450</v>
+        <v>6.539108965772256</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2035,25 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="D52" t="n">
-        <v>954254552.2521319</v>
+        <v>6257460901.402737</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001412328568693233</v>
+        <v>0.0032647394106087</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002744959396649447</v>
+        <v>0.2239524420657353</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>5.719878356754539e-06</v>
+        <v>0.4637558903349171</v>
       </c>
       <c r="I52" t="n">
-        <v>450</v>
+        <v>7.334220747773913</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2066,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D53" t="n">
-        <v>2291055280.461979</v>
+        <v>9764505379.705212</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004736402605423769</v>
+        <v>0.001614771459233107</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001143311565782827</v>
+        <v>0.1220566125629992</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>2.382404303732401e-06</v>
+        <v>0.1025331278924343</v>
       </c>
       <c r="I53" t="n">
-        <v>450</v>
+        <v>6.23751484156473</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2097,25 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D54" t="n">
-        <v>3365275118.556035</v>
+        <v>10794518524.78342</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001346257052656834</v>
+        <v>0.004702064893980365</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0007783583533948697</v>
+        <v>0.1341905770668973</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1.621923845145673e-06</v>
+        <v>0.1455482758024813</v>
       </c>
       <c r="I54" t="n">
-        <v>450</v>
+        <v>7.58097957667098</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2128,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D55" t="n">
-        <v>3439468185.650774</v>
+        <v>8245011925.290214</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00430650422421788</v>
+        <v>0.001483566800546472</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0007615683177207207</v>
+        <v>0.1801324417062894</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.586937184949924e-06</v>
+        <v>0.3084131088166155</v>
       </c>
       <c r="I55" t="n">
-        <v>450</v>
+        <v>7.772903110257587</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D56" t="n">
-        <v>3345305167.650477</v>
+        <v>4776790994.571465</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002130840779414419</v>
+        <v>0.001146718870240128</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0007830047988834715</v>
+        <v>0.3213375970906812</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1.63160599309239e-06</v>
+        <v>0.8089882211444505</v>
       </c>
       <c r="I56" t="n">
-        <v>450</v>
+        <v>8.033370762982267</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D57" t="n">
-        <v>2596785918.423921</v>
+        <v>10140814765.00185</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004455317385926043</v>
+        <v>0.001892700453050512</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001008704638074208</v>
+        <v>0.107711821516523</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>2.101913724013971e-06</v>
+        <v>0.05168055547847516</v>
       </c>
       <c r="I57" t="n">
-        <v>450</v>
+        <v>6.056235120397933</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +2221,25 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D58" t="n">
-        <v>1716606899.486934</v>
+        <v>5549840823.067177</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003302790666920774</v>
+        <v>0.003599858423189042</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001525911378302681</v>
+        <v>0.2053094289234551</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>3.179656310301931e-06</v>
+        <v>0.3976660342498343</v>
       </c>
       <c r="I58" t="n">
-        <v>450</v>
+        <v>6.66151635364002</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +2252,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D59" t="n">
-        <v>742572680.1132398</v>
+        <v>9129933962.437719</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004950081361062611</v>
+        <v>0.002381176626755057</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00352745269271225</v>
+        <v>0.1491886804005228</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>7.35041849294685e-06</v>
+        <v>0.1987168533979415</v>
       </c>
       <c r="I59" t="n">
-        <v>450</v>
+        <v>7.128588390359692</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +2283,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D60" t="n">
-        <v>136991014.4672385</v>
+        <v>6994358068.734107</v>
       </c>
       <c r="E60" t="n">
-        <v>0.002288326169720766</v>
+        <v>0.004383659442112248</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01912088913412952</v>
+        <v>0.2194572432403092</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>3.984363486531301e-05</v>
+        <v>0.4478203202004689</v>
       </c>
       <c r="I60" t="n">
-        <v>450</v>
+        <v>8.033370762982267</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +2314,25 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="D61" t="n">
-        <v>4979676526.003522</v>
+        <v>9370745377.841465</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004742895865197575</v>
+        <v>0.00241419510991461</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0005260160948852258</v>
+        <v>0.1129294967828656</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1.096099301181316e-06</v>
+        <v>0.07017731910887942</v>
       </c>
       <c r="I61" t="n">
-        <v>450</v>
+        <v>5.920642163465311</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +2345,25 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D62" t="n">
-        <v>1054909517.324069</v>
+        <v>4014050403.117638</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003188844578732259</v>
+        <v>0.003758092146377222</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002483047083170188</v>
+        <v>0.3752193168352351</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>5.174111969438887e-06</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>450</v>
+        <v>7.882573700878505</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +2376,25 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D63" t="n">
-        <v>2775505419.79611</v>
+        <v>7189232572.951038</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00336570255081632</v>
+        <v>0.001541526426544644</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0009437524356167253</v>
+        <v>0.204399812509725</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1.966567934377309e-06</v>
+        <v>0.3944414257910378</v>
       </c>
       <c r="I63" t="n">
-        <v>450</v>
+        <v>7.690650167291897</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +2407,25 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="D64" t="n">
-        <v>2396206003.306677</v>
+        <v>4463434522.137163</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00331276669887613</v>
+        <v>0.001804699437831559</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001093140571547412</v>
+        <v>0.3063384425644727</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>2.277859229435749e-06</v>
+        <v>0.7558159170501673</v>
       </c>
       <c r="I64" t="n">
-        <v>450</v>
+        <v>7.156006038014921</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +2438,25 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D65" t="n">
-        <v>1820272257.570522</v>
+        <v>11612618284.61531</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003427462180662559</v>
+        <v>0.00233644233676065</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001439010010236624</v>
+        <v>0.1039850583567169</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>2.998573393381509e-06</v>
+        <v>0.0384691052147733</v>
       </c>
       <c r="I65" t="n">
-        <v>450</v>
+        <v>6.319767784530419</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +2469,25 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="D66" t="n">
-        <v>3590032980.804874</v>
+        <v>4183456486.194409</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00443694832660471</v>
+        <v>0.001461693853076115</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0007296283945037019</v>
+        <v>0.2942813685436261</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1.520381564583216e-06</v>
+        <v>0.7130733474470928</v>
       </c>
       <c r="I66" t="n">
-        <v>450</v>
+        <v>6.443147198978952</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +2500,25 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D67" t="n">
-        <v>1500136043.622596</v>
+        <v>9168746431.401356</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001518861118453455</v>
+        <v>0.004617733709396809</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001746101636005345</v>
+        <v>0.131130249810632</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>3.638483311873975e-06</v>
+        <v>0.1346993542040118</v>
       </c>
       <c r="I67" t="n">
-        <v>450</v>
+        <v>6.292350136875189</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +2531,25 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D68" t="n">
-        <v>4145381257.923578</v>
+        <v>10426783054.67606</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003089037554167409</v>
+        <v>0.004903775497223803</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0006318815657771495</v>
+        <v>0.1120429890862724</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1.316699145543849e-06</v>
+        <v>0.06703463151653491</v>
       </c>
       <c r="I68" t="n">
-        <v>450</v>
+        <v>6.114135427116197</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +2562,25 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="D69" t="n">
-        <v>3516472082.361291</v>
+        <v>9841624021.915123</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002974308754870507</v>
+        <v>0.001009454970858385</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0007448914533230404</v>
+        <v>0.1447879086649678</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1.552186348255124e-06</v>
+        <v>0.1831160291939118</v>
       </c>
       <c r="I69" t="n">
-        <v>450</v>
+        <v>7.457600162222446</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +2593,25 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="D70" t="n">
-        <v>4332103328.278568</v>
+        <v>7000170463.983351</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001063109582620098</v>
+        <v>0.002152856045830613</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0006046462426003254</v>
+        <v>0.1897140557980501</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1.259946854137105e-06</v>
+        <v>0.3423801232447253</v>
       </c>
       <c r="I70" t="n">
-        <v>450</v>
+        <v>6.950373680600699</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +2624,25 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D71" t="n">
-        <v>504297073.4791481</v>
+        <v>5092835107.798983</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004812645225515649</v>
+        <v>0.004135454195375603</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00519414079072245</v>
+        <v>0.2144749647062622</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1.082342184261585e-05</v>
+        <v>0.4301580427146373</v>
       </c>
       <c r="I71" t="n">
-        <v>450</v>
+        <v>5.39521828160641</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +2655,25 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D72" t="n">
-        <v>4630688955.057376</v>
+        <v>9447739038.567492</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002809482020246182</v>
+        <v>0.00148032754405016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0005656588091798415</v>
+        <v>0.1294759650966688</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1.17870580668138e-06</v>
+        <v>0.1288348816621979</v>
       </c>
       <c r="I72" t="n">
-        <v>450</v>
+        <v>6.402020727496107</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +2686,25 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D73" t="n">
-        <v>2660087432.532396</v>
+        <v>5057942619.65438</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002224968725751194</v>
+        <v>0.004150488471087899</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009847007162115523</v>
+        <v>0.2635991766334244</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>2.051894946575215e-06</v>
+        <v>0.6043043607900299</v>
       </c>
       <c r="I73" t="n">
-        <v>450</v>
+        <v>6.977791328255929</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +2717,25 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D74" t="n">
-        <v>1464896044.314089</v>
+        <v>8683046437.561171</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003468514637626379</v>
+        <v>0.001253580176352478</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001788106405343241</v>
+        <v>0.1366552256207072</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>3.726011809129551e-06</v>
+        <v>0.1542855044349169</v>
       </c>
       <c r="I74" t="n">
-        <v>450</v>
+        <v>6.2100971939095</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +2748,25 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="D75" t="n">
-        <v>1176742228.621739</v>
+        <v>5305966135.873274</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000635704185960415</v>
+        <v>0.002257239628741936</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002225967536720395</v>
+        <v>0.2804038853435182</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>4.638415982278813e-06</v>
+        <v>0.6638773907356604</v>
       </c>
       <c r="I75" t="n">
-        <v>450</v>
+        <v>7.786611934085201</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +2779,25 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D76" t="n">
-        <v>4319411996.400764</v>
+        <v>4908869114.30724</v>
       </c>
       <c r="E76" t="n">
-        <v>0.002726813800930032</v>
+        <v>0.001551751745503338</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0006064228191667427</v>
+        <v>0.2369199774771605</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1.263648840353648e-06</v>
+        <v>0.5097260638566897</v>
       </c>
       <c r="I76" t="n">
-        <v>450</v>
+        <v>7.159305975794791</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +2810,25 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D77" t="n">
-        <v>3601338091.852296</v>
+        <v>9725564191.059635</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00344608582593801</v>
+        <v>0.003583660996018748</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0007273379874902982</v>
+        <v>0.1400518029845625</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1.515608871216561e-06</v>
+        <v>0.1663264394192919</v>
       </c>
       <c r="I77" t="n">
-        <v>450</v>
+        <v>7.128588390359692</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +2841,25 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D78" t="n">
-        <v>1115656505.398739</v>
+        <v>7851869636.978604</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004005852520261659</v>
+        <v>0.002291478011280351</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002347846301549437</v>
+        <v>0.1594611828631678</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>4.892383931657061e-06</v>
+        <v>0.2351330809792105</v>
       </c>
       <c r="I78" t="n">
-        <v>450</v>
+        <v>6.55281778959987</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +2872,25 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D79" t="n">
-        <v>2736362818.375944</v>
+        <v>7833468415.345031</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001681140985233018</v>
+        <v>0.003928845664380482</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0009572524456221897</v>
+        <v>0.1421133897494583</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.994698920628137e-06</v>
+        <v>0.1736348059134332</v>
       </c>
       <c r="I79" t="n">
-        <v>450</v>
+        <v>5.825069173197833</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +2903,25 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D80" t="n">
-        <v>3802107466.613652</v>
+        <v>6963557708.840496</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004946010538108961</v>
+        <v>0.002232241306376718</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0006889310791451564</v>
+        <v>0.1737844691749534</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1.435577507524485e-06</v>
+        <v>0.2859094186767102</v>
       </c>
       <c r="I80" t="n">
-        <v>450</v>
+        <v>6.333476608358033</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +2934,25 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="D81" t="n">
-        <v>4206508177.990417</v>
+        <v>6747043822.963409</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004994294820225974</v>
+        <v>0.001917182933926802</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0006226993718222998</v>
+        <v>0.1646085884635914</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1.297565517361962e-06</v>
+        <v>0.2533807372323743</v>
       </c>
       <c r="I81" t="n">
-        <v>450</v>
+        <v>5.157288954520101</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +2965,25 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D82" t="n">
-        <v>1499691726.662421</v>
+        <v>4231081589.912724</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0007745767983105118</v>
+        <v>0.003206823848763001</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001746618957370311</v>
+        <v>0.2711582832000329</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>3.639561293312449e-06</v>
+        <v>0.6311015454139025</v>
       </c>
       <c r="I82" t="n">
-        <v>450</v>
+        <v>6.329797916714149</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +2996,25 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D83" t="n">
-        <v>870360888.1690898</v>
+        <v>8438084728.800681</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003172261218609759</v>
+        <v>0.001812576781077812</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003009544702209915</v>
+        <v>0.1356555980165767</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>6.271214658718745e-06</v>
+        <v>0.150741804498031</v>
       </c>
       <c r="I83" t="n">
-        <v>450</v>
+        <v>6.608249187439227</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +3027,25 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="D84" t="n">
-        <v>2323146945.48481</v>
+        <v>8912660268.105247</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002935398776652351</v>
+        <v>0.001655168646819171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001127518000999015</v>
+        <v>0.1545889889835224</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>2.349494064880344e-06</v>
+        <v>0.2178610558045825</v>
       </c>
       <c r="I84" t="n">
-        <v>450</v>
+        <v>7.21084133332538</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +3058,25 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="D85" t="n">
-        <v>3711973462.863582</v>
+        <v>8488637923.073718</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001731753187169573</v>
+        <v>0.002764320414065716</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0007056596783909349</v>
+        <v>0.149042211655776</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1.470436148013501e-06</v>
+        <v>0.1981976187555904</v>
       </c>
       <c r="I85" t="n">
-        <v>450</v>
+        <v>6.621361908737944</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +3089,25 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="D86" t="n">
-        <v>1853577278.109043</v>
+        <v>7463069291.204624</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003016779688830322</v>
+        <v>0.003747675497186098</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001413153921843611</v>
+        <v>0.1804038536245027</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2.944695117232854e-06</v>
+        <v>0.3093752695187293</v>
       </c>
       <c r="I86" t="n">
-        <v>450</v>
+        <v>7.046335447394003</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +3120,25 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D87" t="n">
-        <v>1389707911.595429</v>
+        <v>10588357006.45526</v>
       </c>
       <c r="E87" t="n">
-        <v>0.003072457253250685</v>
+        <v>0.00213187991332115</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001884849311243293</v>
+        <v>0.1026643557010096</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>3.927602278665342e-06</v>
+        <v>0.03378718777038075</v>
       </c>
       <c r="I87" t="n">
-        <v>450</v>
+        <v>5.883156851332456</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +3151,25 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D88" t="n">
-        <v>2923311899.978363</v>
+        <v>4851034337.987733</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0009117920891983977</v>
+        <v>0.004376081163326431</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0008960350758396283</v>
+        <v>0.2424444001127939</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1.867135682751424e-06</v>
+        <v>0.5293102530730862</v>
       </c>
       <c r="I88" t="n">
-        <v>450</v>
+        <v>6.155261898599041</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +3182,25 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D89" t="n">
-        <v>1872636609.152395</v>
+        <v>4078064264.851633</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0005019296093609231</v>
+        <v>0.002511555927821913</v>
       </c>
       <c r="F89" t="n">
-        <v>0.001398771116188744</v>
+        <v>0.3269368561675932</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>2.914724583287944e-06</v>
+        <v>0.8288377070484734</v>
       </c>
       <c r="I89" t="n">
-        <v>450</v>
+        <v>6.977791328255929</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +3213,25 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D90" t="n">
-        <v>483743772.0375717</v>
+        <v>5614392805.12214</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004930920503004112</v>
+        <v>0.00104923938025695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.005414829402282322</v>
+        <v>0.2127463968873505</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1.128328730160381e-05</v>
+        <v>0.4240302350736023</v>
       </c>
       <c r="I90" t="n">
-        <v>450</v>
+        <v>6.251223665392345</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +3244,25 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D91" t="n">
-        <v>1668980990.983274</v>
+        <v>7081417795.907435</v>
       </c>
       <c r="E91" t="n">
-        <v>0.004410033783401334</v>
+        <v>0.001304259300510288</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00156945466374473</v>
+        <v>0.1779201038989889</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>3.270390729283125e-06</v>
+        <v>0.3005703268489045</v>
       </c>
       <c r="I91" t="n">
-        <v>450</v>
+        <v>6.593944261082714</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +3275,25 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="D92" t="n">
-        <v>4362899460.142323</v>
+        <v>9962515663.38118</v>
       </c>
       <c r="E92" t="n">
-        <v>0.003740441218364305</v>
+        <v>0.004153207347415489</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0006003782631091281</v>
+        <v>0.1443455808341426</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1.251053344255476e-06</v>
+        <v>0.1815479681482771</v>
       </c>
       <c r="I92" t="n">
-        <v>450</v>
+        <v>7.52614428136052</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +3306,25 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D93" t="n">
-        <v>467494237.3542276</v>
+        <v>10175924212.65818</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003132384002795019</v>
+        <v>0.003862009272679614</v>
       </c>
       <c r="F93" t="n">
-        <v>0.005603042328017506</v>
+        <v>0.1238144628114205</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1.167548073138212e-05</v>
+        <v>0.1087647423342984</v>
       </c>
       <c r="I93" t="n">
-        <v>450</v>
+        <v>6.593944261082714</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +3337,25 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D94" t="n">
-        <v>3088201717.775626</v>
+        <v>9563713028.063133</v>
       </c>
       <c r="E94" t="n">
-        <v>0.003884378204244046</v>
+        <v>0.004689348671871648</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0008481926504097336</v>
+        <v>0.1243453307842342</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.767442822417998e-06</v>
+        <v>0.1106466799618519</v>
       </c>
       <c r="I94" t="n">
-        <v>450</v>
+        <v>6.223806017737116</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +3368,25 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="D95" t="n">
-        <v>2864211086.268296</v>
+        <v>5920198038.484381</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0006846881740966699</v>
+        <v>0.001191019939142208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0009145240769990639</v>
+        <v>0.2579481902586744</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1.905662605116451e-06</v>
+        <v>0.5842715005760876</v>
       </c>
       <c r="I95" t="n">
-        <v>450</v>
+        <v>7.992244291499423</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +3399,25 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>450</v>
+        <v>595</v>
       </c>
       <c r="D96" t="n">
-        <v>3929859575.691922</v>
+        <v>5680001407.061164</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003092550209794676</v>
+        <v>0.002045385215249732</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0006665352666039752</v>
+        <v>0.2743902577317121</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1.388909668432732e-06</v>
+        <v>0.6425589600517168</v>
       </c>
       <c r="I96" t="n">
-        <v>450</v>
+        <v>8.156750177430801</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +3430,25 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>450</v>
+        <v>599</v>
       </c>
       <c r="D97" t="n">
-        <v>356891730.9061045</v>
+        <v>4233833462.242525</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0006378078790579216</v>
+        <v>0.003263687175329887</v>
       </c>
       <c r="F97" t="n">
-        <v>0.007339452761625182</v>
+        <v>0.3705895907320227</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1.529376975589686e-05</v>
+        <v>0.9835875279634527</v>
       </c>
       <c r="I97" t="n">
-        <v>450</v>
+        <v>8.211585472741261</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +3461,25 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="D98" t="n">
-        <v>1335580020.245311</v>
+        <v>5096460160.309922</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001147108423694674</v>
+        <v>0.001715347788404721</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001961237784553626</v>
+        <v>0.2096967476215904</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>4.086778686056514e-06</v>
+        <v>0.4132191671659704</v>
       </c>
       <c r="I98" t="n">
-        <v>450</v>
+        <v>3.753898539102596</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +3492,25 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="D99" t="n">
-        <v>2976830247.035522</v>
+        <v>10443721656.23348</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003834960458402864</v>
+        <v>0.004233064340437886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0008799258884877702</v>
+        <v>0.1336817387474797</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1.833567757414798e-06</v>
+        <v>0.1437444337387422</v>
       </c>
       <c r="I99" t="n">
-        <v>450</v>
+        <v>7.306803100118684</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +3523,25 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D100" t="n">
-        <v>2363047043.720602</v>
+        <v>4868233831.614219</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00169563756115441</v>
+        <v>0.001900736546156981</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00110847983621849</v>
+        <v>0.2394356126508201</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>2.309822808972745e-06</v>
+        <v>0.5186440410806977</v>
       </c>
       <c r="I100" t="n">
-        <v>450</v>
+        <v>6.100426603288582</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +3554,25 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>450</v>
+        <v>649</v>
       </c>
       <c r="D101" t="n">
-        <v>1002716269.802948</v>
+        <v>10363311747.85449</v>
       </c>
       <c r="E101" t="n">
-        <v>0.002064102610723788</v>
+        <v>0.004566768039588344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002612294303865996</v>
+        <v>0.1640386925880085</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>5.44343412452468e-06</v>
+        <v>0.251360444905522</v>
       </c>
       <c r="I101" t="n">
-        <v>450</v>
+        <v>8.897026664121999</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_6.xlsx
+++ b/output/fit_clients/fit_round_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>7740068829.543371</v>
+        <v>11932924240.99403</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1607492487987865</v>
+        <v>0.1047060221590679</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2396993005952918</v>
+        <v>0.1151394482718855</v>
       </c>
       <c r="I2" t="n">
-        <v>6.511691318117026</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.387213644292221</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7935674931944396</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9.484136219596571</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>6669316274.588624</v>
+        <v>5577693205.348435</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2179775842299023</v>
+        <v>0.2822409429924279</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.442574899285595</v>
+        <v>0.6904736728822386</v>
       </c>
       <c r="I3" t="n">
-        <v>7.608397224326209</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4946317272003546</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.628712657037289</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8690224934123577</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.75173721120987</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>7739614304.914721</v>
+        <v>4697192801.335692</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.19189510891478</v>
+        <v>0.2788250462334813</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3501120003559254</v>
+        <v>0.679403837697519</v>
       </c>
       <c r="I4" t="n">
-        <v>7.772903110257587</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.263083110816647</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8088361734854294</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.913640358891939</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>6890098408.629678</v>
+        <v>13526534552.26615</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2106126754564899</v>
+        <v>0.07958943850992778</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4164661497395946</v>
+        <v>0.03374458741404459</v>
       </c>
       <c r="I5" t="n">
-        <v>7.594688400498594</v>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9137977160801238</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.134080929836935</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9437081100078808</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.74008127032068</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>9897572494.784422</v>
+        <v>11220925784.51903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.123591429175649</v>
+        <v>0.1199871103200341</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1079740836152501</v>
+        <v>0.1646605958130169</v>
       </c>
       <c r="I6" t="n">
-        <v>6.402020727496107</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.339191746124705</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8178104400378214</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.01701705463172</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>8921667767.571482</v>
+        <v>12885634419.12864</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1318258133613668</v>
+        <v>0.1244072761850404</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1371651409636553</v>
+        <v>0.1789849478258785</v>
       </c>
       <c r="I7" t="n">
-        <v>6.155261898599041</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4772818131828728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.611362743019807</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8750156371914537</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.88895000080927</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>5856376946.309513</v>
+        <v>11030373333.08682</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.261206506006069</v>
+        <v>0.1092365021214388</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5958222953527486</v>
+        <v>0.129821293195848</v>
       </c>
       <c r="I8" t="n">
-        <v>8.005953115327038</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.24341673466446</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7818250667538663</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.393084600412866</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>3781685745.939121</v>
+        <v>6906054418.066509</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3075372302547539</v>
+        <v>0.1930580660517407</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7600656434931302</v>
+        <v>0.401460327719841</v>
       </c>
       <c r="I9" t="n">
-        <v>6.484592842698097</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.548631955978604</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8146317890194635</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9.744003824410669</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>10168834826.82432</v>
+        <v>8664229125.812094</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1424472611334928</v>
+        <v>0.1578122600574511</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1748183866765516</v>
+        <v>0.2872398782031779</v>
       </c>
       <c r="I10" t="n">
-        <v>7.58097957667098</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.222370897408428</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8228371149333771</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.23437140125911</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>7331879564.225614</v>
+        <v>11174033237.59095</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1468340117386675</v>
+        <v>0.1357277876083152</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1903695056917305</v>
+        <v>0.215671125572373</v>
       </c>
       <c r="I11" t="n">
-        <v>5.437516225673058</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1639099209783007</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.297990850815236</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8567381510938269</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10.8367721710613</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>4569844138.940948</v>
+        <v>7905341222.673737</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2774240699363998</v>
+        <v>0.1610333449426284</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6533138852597166</v>
+        <v>0.2976783900526699</v>
       </c>
       <c r="I12" t="n">
-        <v>6.635070732565559</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.294844733292386</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.799623360168026</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.697622470068135</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>6889315824.302145</v>
+        <v>7768593902.390756</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1798395517925761</v>
+        <v>0.1844357354757673</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3073748081890104</v>
+        <v>0.3735180961128091</v>
       </c>
       <c r="I13" t="n">
-        <v>6.484273670461796</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.306156306191839</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8381007636898259</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10.45585896760468</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>4113835067.405505</v>
+        <v>14780804261.07367</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3368286008787173</v>
+        <v>0.1089876316299302</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8639041407520445</v>
+        <v>0.129014783070469</v>
       </c>
       <c r="I14" t="n">
-        <v>7.251967804808224</v>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2040126255110894</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.338093555348024</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.876633616626879</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11.19457877718956</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>10221616797.4713</v>
+        <v>7601431024.615663</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.143761776548259</v>
+        <v>0.1292218855659043</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1794783702275204</v>
+        <v>0.1945875658456939</v>
       </c>
       <c r="I15" t="n">
-        <v>7.690650167291897</v>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9230638080053655</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.01710065398267637</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.151181583819611</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.9161163747716591</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12.17114591161357</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>5423504703.023002</v>
+        <v>5345362682.120608</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.288333082688832</v>
+        <v>0.2494254532923604</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6919865546043241</v>
+        <v>0.5841291056659745</v>
       </c>
       <c r="I16" t="n">
-        <v>8.18416782508603</v>
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.88510655530616</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5258316820720482</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.863281903906827</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.9542520748945167</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14.22175959398351</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>7859153154.821445</v>
+        <v>11008289279.79384</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.147648194040871</v>
+        <v>0.1303949854074767</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1932557983081111</v>
+        <v>0.1983892094016402</v>
       </c>
       <c r="I17" t="n">
-        <v>5.861670544511991</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.544117648238336</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8386979452839242</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10.22984125744015</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>7685869473.619918</v>
+        <v>9238794333.678827</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1588155698180366</v>
+        <v>0.1187951988496071</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2328443697653238</v>
+        <v>0.1607979897498079</v>
       </c>
       <c r="I18" t="n">
-        <v>6.388311903668493</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.8370962913574277</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16.74192582714855</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>10356392120.47606</v>
+        <v>9618508772.219461</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1269683268751662</v>
+        <v>0.1361640386275584</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1199452537942272</v>
+        <v>0.2170848764035535</v>
       </c>
       <c r="I19" t="n">
-        <v>6.881829561462625</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.635318564756608</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8088361734854294</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9.541404904951978</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>8617964130.976051</v>
+        <v>8126992197.235133</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1778080213274745</v>
+        <v>0.1821037001245667</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3001729918814022</v>
+        <v>0.3659607110966732</v>
       </c>
       <c r="I20" t="n">
-        <v>8.019661939154652</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.879973295394194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8487016552063428</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10.09405980873266</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>5790494717.823694</v>
+        <v>6330920093.069174</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2442745687421361</v>
+        <v>0.1559820714023993</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5357982376280265</v>
+        <v>0.281308818748496</v>
       </c>
       <c r="I21" t="n">
-        <v>7.402764866911987</v>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.9155543450634536</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2049295426525491</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6.339010472489484</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.9151586443424553</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11.96416241435962</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>6127207573.032763</v>
+        <v>12611172028.02505</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2342707836955999</v>
+        <v>0.1254531740970758</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5003346186847841</v>
+        <v>0.1823743703767653</v>
       </c>
       <c r="I22" t="n">
-        <v>7.512435457532906</v>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.161741325385484</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.295822255222419</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8706665466272165</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11.11750867732191</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>5441968694.546422</v>
+        <v>5449358831.119286</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2300763731431861</v>
+        <v>0.2586050696372562</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4854653490203165</v>
+        <v>0.6138773232404112</v>
       </c>
       <c r="I23" t="n">
-        <v>6.55281778959987</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6.60598628000503</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8326808863027494</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10.04763144604996</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>6934595307.663625</v>
+        <v>13234751719.33591</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1983071381945315</v>
+        <v>0.1126151016359819</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3728427729557178</v>
+        <v>0.140770259871498</v>
       </c>
       <c r="I24" t="n">
-        <v>7.197132509497766</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.429915571171044</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8510158988653095</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10.59040240613514</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>3933991853.013903</v>
+        <v>4265074832.847291</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3362467436191015</v>
+        <v>0.3027752901437161</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8618414450785185</v>
+        <v>0.7570189623425321</v>
       </c>
       <c r="I25" t="n">
-        <v>6.92295603294547</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.466912555440828</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8042605470901666</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9.618298386362504</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>8758415789.004623</v>
+        <v>5630511049.40544</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1250117654124792</v>
+        <v>0.2749412045223619</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1130092041061354</v>
+        <v>0.6668175417232549</v>
       </c>
       <c r="I26" t="n">
-        <v>4.955573214460115</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1696876071254212</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6.303768536962355</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8634892229743736</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10.96601592252512</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>9140374971.382927</v>
+        <v>12202741601.35531</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1601946325598568</v>
+        <v>0.1260029901665071</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2377331748873081</v>
+        <v>0.1841561494233872</v>
       </c>
       <c r="I27" t="n">
-        <v>7.663232519636669</v>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1838243751710803</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.317905305008015</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8612525695671774</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10.90714608633553</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>7621700802.264795</v>
+        <v>6105384599.70365</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1512171141194003</v>
+        <v>0.247979041332382</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2059076916779784</v>
+        <v>0.5794417444439962</v>
       </c>
       <c r="I28" t="n">
-        <v>6.122725552982754</v>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1420629781834575</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.276143908020392</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8561699320488702</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10.84725473295701</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>8842402758.383181</v>
+        <v>13032090164.59452</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.154336126422897</v>
+        <v>0.1242151488790261</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2169646529477323</v>
+        <v>0.1783623243210866</v>
       </c>
       <c r="I29" t="n">
-        <v>7.142297214187306</v>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2572236769242652</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6.391304606761199</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8782446579692467</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11.17358855262373</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>9871263363.919779</v>
+        <v>5975304119.638034</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1560287942098226</v>
+        <v>0.2091021653431236</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2229651942542264</v>
+        <v>0.4534541517069741</v>
       </c>
       <c r="I30" t="n">
-        <v>8.060788410637498</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6.222997778969063</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7935674931944396</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9.648352084919729</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>7132994698.470087</v>
+        <v>4854637364.376804</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2063785607909874</v>
+        <v>0.2023366888756469</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4014561281966622</v>
+        <v>0.4315293938099693</v>
       </c>
       <c r="I31" t="n">
-        <v>7.704358991119513</v>
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.884134457949743</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.09198607140846664</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6.226067001245402</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.9016747225291805</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11.80742744933821</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>7527757604.706428</v>
+        <v>15032501089.68682</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1558879525114258</v>
+        <v>0.06917663426703033</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2224659076042206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.141553074771426</v>
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.901620409072316</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5746500738178196</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.708731003654754</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.9274076895123008</v>
+      </c>
+      <c r="N32" t="n">
+        <v>11.83942278659126</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>6263727578.12835</v>
+        <v>4703141433.390077</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.175219052283233</v>
+        <v>0.289054332992934</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.290995044613071</v>
+        <v>0.7125537033039072</v>
       </c>
       <c r="I33" t="n">
-        <v>5.55122226590202</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6.33217386232529</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8209605219496745</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10.0870365766682</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>4999041511.994075</v>
+        <v>9728206472.205936</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2813764251857381</v>
+        <v>0.1141650686766478</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6673250640124417</v>
+        <v>0.145793210180807</v>
       </c>
       <c r="I34" t="n">
-        <v>7.361638395429143</v>
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9037714780889072</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.4348571678747101</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6.568938097711644</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.9505627106182253</v>
+      </c>
+      <c r="N34" t="n">
+        <v>12.44231611465286</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>5776846448.644667</v>
+        <v>6042057577.63345</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2149253699293488</v>
+        <v>0.2648844817243305</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.431754738278095</v>
+        <v>0.6342269010427232</v>
       </c>
       <c r="I35" t="n">
-        <v>6.497982494289411</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4403274450095466</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6.574408374846481</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.874474756329914</v>
+      </c>
+      <c r="N35" t="n">
+        <v>10.9150867517518</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>4607128795.167841</v>
+        <v>6367514570.226693</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3354453866410085</v>
+        <v>0.190463257935949</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8590006184937411</v>
+        <v>0.3930513797320085</v>
       </c>
       <c r="I36" t="n">
-        <v>8.088206058292727</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.278823899916228</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7839272101710213</v>
+      </c>
+      <c r="N36" t="n">
+        <v>9.399720303504198</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>8287500461.689366</v>
+        <v>11290566096.37102</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1450738996103678</v>
+        <v>0.08769528574109713</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1841298728402619</v>
+        <v>0.06001306073559565</v>
       </c>
       <c r="I37" t="n">
-        <v>6.292350136875189</v>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8822525717919886</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.08749415696844684</v>
+      </c>
+      <c r="L37" t="n">
+        <v>6.221575086805381</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.9036261217546258</v>
+      </c>
+      <c r="N37" t="n">
+        <v>11.85094734828714</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>11503174219.88932</v>
+        <v>11527392734.98007</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09313346816460788</v>
+        <v>0.1092984874347805</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1300221678858601</v>
       </c>
       <c r="I38" t="n">
-        <v>5.747238529568443</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6.319344179107462</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7962722618891531</v>
+      </c>
+      <c r="N38" t="n">
+        <v>9.6061010586756</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>8690267475.292746</v>
+        <v>7717646287.110305</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1341303421688679</v>
+        <v>0.1944777480287946</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1453347418789851</v>
+        <v>0.4060610655669503</v>
       </c>
       <c r="I39" t="n">
-        <v>6.100426603288582</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7.013686510525549</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8533155505486315</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10.05262450044708</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>6048679935.086044</v>
+        <v>9427099817.494764</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2303834051322104</v>
+        <v>0.14754231067107</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4865537835889814</v>
+        <v>0.2539582379531047</v>
       </c>
       <c r="I40" t="n">
-        <v>7.293094276291069</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6.535038806846124</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8284077974982297</v>
+      </c>
+      <c r="N40" t="n">
+        <v>10.03311714311847</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>8567162453.226637</v>
+        <v>5467031599.85079</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1495106129938721</v>
+        <v>0.2146478758293674</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1998581109082579</v>
+        <v>0.4714260359286218</v>
       </c>
       <c r="I41" t="n">
-        <v>6.703614851703633</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.384669047660553</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7732816962592279</v>
+      </c>
+      <c r="N41" t="n">
+        <v>9.080964877524007</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>5879390793.375863</v>
+        <v>8064454130.442499</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2071671016276556</v>
+        <v>0.1403165622491934</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4042515213026413</v>
+        <v>0.2305418850124235</v>
       </c>
       <c r="I42" t="n">
-        <v>6.374603079840877</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.336051124137677</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7615362538409494</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8.894673952681311</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>11248818515.99498</v>
+        <v>10087369588.26572</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.113402392276676</v>
+        <v>0.09815536263802431</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07185374313383171</v>
+        <v>0.09391084378925751</v>
       </c>
       <c r="I43" t="n">
-        <v>6.676197204048403</v>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.9383784400137034</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1424758459471519</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6.276556775784086</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.9243414317693213</v>
+      </c>
+      <c r="N43" t="n">
+        <v>12.21027185960234</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>10007770549.9163</v>
+        <v>14650764901.6364</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1504979797935712</v>
+        <v>0.1053064956238344</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2033583460471425</v>
+        <v>0.1170853918283915</v>
       </c>
       <c r="I44" t="n">
-        <v>7.882573700878505</v>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1247518777827504</v>
+      </c>
+      <c r="L44" t="n">
+        <v>6.258832807619685</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8623725882269968</v>
+      </c>
+      <c r="N44" t="n">
+        <v>10.98861895692025</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>8892071528.386438</v>
+        <v>5642870117.308314</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1761563899929895</v>
+        <v>0.174537180464079</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2943179256231389</v>
+        <v>0.3414400269325035</v>
       </c>
       <c r="I45" t="n">
-        <v>8.197876648913645</v>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.8793051445685484</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.4325716891647584</v>
+      </c>
+      <c r="L45" t="n">
+        <v>6.566652619001693</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.9007345574322329</v>
+      </c>
+      <c r="N45" t="n">
+        <v>11.44803852964296</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>10285394919.31277</v>
+        <v>4927435297.87148</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1044150378692272</v>
+        <v>0.31576622846212</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03999339122393224</v>
+        <v>0.7991184624819739</v>
       </c>
       <c r="I46" t="n">
-        <v>5.097181108262803</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5126239661604088</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6.646704895997344</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8651578842620847</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10.65645278924435</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>10213521856.5302</v>
+        <v>12581916168.10135</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1218199037978748</v>
+        <v>0.08723030700065619</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.101693990565128</v>
+        <v>0.05850621249505718</v>
       </c>
       <c r="I47" t="n">
-        <v>6.511691318117026</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6.382385351408595</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7516719726052367</v>
+      </c>
+      <c r="N47" t="n">
+        <v>8.65105410069614</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>7740430256.842316</v>
+        <v>9240874624.076704</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1979661464742807</v>
+        <v>0.1652553932526251</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3716339504576812</v>
+        <v>0.3113607060685675</v>
       </c>
       <c r="I48" t="n">
-        <v>8.019661939154652</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2364238167667653</v>
+      </c>
+      <c r="L48" t="n">
+        <v>6.3705047466037</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8590022801639</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10.8095408566743</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>3830336679.004224</v>
+        <v>11593679868.12813</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3008956383175237</v>
+        <v>0.09737694182013641</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7365210666611846</v>
+        <v>0.0913882294462435</v>
       </c>
       <c r="I49" t="n">
-        <v>6.701807101567586</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6.473292338600071</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7607880065263936</v>
+      </c>
+      <c r="N49" t="n">
+        <v>8.742467791927799</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>6736053839.304695</v>
+        <v>12870486899.77124</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2057075764321726</v>
+        <v>0.1060334547268959</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3990774751661149</v>
+        <v>0.1194412351178135</v>
       </c>
       <c r="I50" t="n">
-        <v>7.251967804808224</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6.195904822973322</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8222126939908324</v>
+      </c>
+      <c r="N50" t="n">
+        <v>10.24834905684333</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>9027052310.199062</v>
+        <v>7373970984.647631</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1384116306259056</v>
+        <v>0.1825836395075451</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1605119954605237</v>
+        <v>0.3675160420223844</v>
       </c>
       <c r="I51" t="n">
-        <v>6.539108965772256</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6.24109316076723</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8178104400378214</v>
+      </c>
+      <c r="N51" t="n">
+        <v>10.1151156399892</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>6257460901.402737</v>
+        <v>5802750003.282961</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2239524420657353</v>
+        <v>0.193201313061174</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4637558903349171</v>
+        <v>0.4019245457267165</v>
       </c>
       <c r="I52" t="n">
-        <v>7.334220747773913</v>
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.874162467844773</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.6643220308763421</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.798402960713276</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.9424107463873352</v>
+      </c>
+      <c r="N52" t="n">
+        <v>12.04981196703343</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>9764505379.705212</v>
+        <v>8566069746.015335</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1220566125629992</v>
+        <v>0.1614553652967098</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1025331278924343</v>
+        <v>0.2990460238232286</v>
       </c>
       <c r="I53" t="n">
-        <v>6.23751484156473</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>6.21081684463315</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8265606272423425</v>
+      </c>
+      <c r="N53" t="n">
+        <v>10.3203957002137</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>10794518524.78342</v>
+        <v>12182211975.16355</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1341905770668973</v>
+        <v>0.1307307017187754</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1455482758024813</v>
+        <v>0.1994771592131107</v>
       </c>
       <c r="I54" t="n">
-        <v>7.58097957667098</v>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.1669714153500969</v>
+      </c>
+      <c r="L54" t="n">
+        <v>6.301052345187031</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8728474123149184</v>
+      </c>
+      <c r="N54" t="n">
+        <v>11.15589590111134</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>8245011925.290214</v>
+        <v>6296622010.680573</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1801324417062894</v>
+        <v>0.2100796185250169</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3084131088166155</v>
+        <v>0.4566217666520099</v>
       </c>
       <c r="I55" t="n">
-        <v>7.772903110257587</v>
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.9062511249210511</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.2464065910646153</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.583856812899395</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.9605067929994029</v>
+      </c>
+      <c r="N55" t="n">
+        <v>14.62627904708866</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>4776790994.571465</v>
+        <v>4018501676.405232</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3213375970906812</v>
+        <v>0.3115759357154339</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8089882211444505</v>
+        <v>0.7855390561489072</v>
       </c>
       <c r="I56" t="n">
-        <v>8.033370762982267</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>6.404693263969664</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7942457017922454</v>
+      </c>
+      <c r="N56" t="n">
+        <v>9.480220771875244</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>10140814765.00185</v>
+        <v>13591091700.94373</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.107711821516523</v>
+        <v>0.07246589616723811</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05168055547847516</v>
+        <v>0.01065945187579583</v>
       </c>
       <c r="I57" t="n">
-        <v>6.056235120397933</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.8103405361773415</v>
+      </c>
+      <c r="N57" t="n">
+        <v>16.20681072354683</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>5549840823.067177</v>
+        <v>7503118671.529335</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2053094289234551</v>
+        <v>0.2157480230377389</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3976660342498343</v>
+        <v>0.4749912631983587</v>
       </c>
       <c r="I58" t="n">
-        <v>6.66151635364002</v>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2010660388926516</v>
+      </c>
+      <c r="L58" t="n">
+        <v>6.335146968729586</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8782446579692467</v>
+      </c>
+      <c r="N58" t="n">
+        <v>11.22974619065535</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>9129933962.437719</v>
+        <v>6638930625.617022</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1491886804005228</v>
+        <v>0.2379136428847985</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1987168533979415</v>
+        <v>0.5468229887420106</v>
       </c>
       <c r="I59" t="n">
-        <v>7.128588390359692</v>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4090073128680325</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6.543088242704967</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8701193340181086</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10.8592984376572</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>6994358068.734107</v>
+        <v>5186046217.744987</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2194572432403092</v>
+        <v>0.1959726692219725</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4478203202004689</v>
+        <v>0.4109056297884192</v>
       </c>
       <c r="I60" t="n">
-        <v>8.033370762982267</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>6.175474681631769</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7268445051880031</v>
+      </c>
+      <c r="N60" t="n">
+        <v>8.361415422128294</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>9370745377.841465</v>
+        <v>9548157173.838018</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1129294967828656</v>
+        <v>0.1050701566527249</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.07017731910887942</v>
+        <v>0.1163194923757645</v>
       </c>
       <c r="I61" t="n">
-        <v>5.920642163465311</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.8837477278720302</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>6.213822262039037</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.9085920728266735</v>
+      </c>
+      <c r="N61" t="n">
+        <v>11.95801919449443</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>4014050403.117638</v>
+        <v>7100181975.789983</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3752193168352351</v>
+        <v>0.2147106912468088</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0.4716296007220585</v>
       </c>
       <c r="I62" t="n">
-        <v>7.882573700878505</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>6.846809704713787</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8584375534269177</v>
+      </c>
+      <c r="N62" t="n">
+        <v>10.32194136382457</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>7189232572.951038</v>
+        <v>10998880420.37233</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.204399812509725</v>
+        <v>0.1419377591475945</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3944414257910378</v>
+        <v>0.2357956686404781</v>
       </c>
       <c r="I63" t="n">
-        <v>7.690650167291897</v>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3649754357957464</v>
+      </c>
+      <c r="L63" t="n">
+        <v>6.499056365632681</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8662661667661561</v>
+      </c>
+      <c r="N63" t="n">
+        <v>10.82626696969044</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>4463434522.137163</v>
+        <v>13687211675.81997</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3063384425644727</v>
+        <v>0.09109449532388454</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7558159170501673</v>
+        <v>0.07102881808868984</v>
       </c>
       <c r="I64" t="n">
-        <v>7.156006038014921</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>6.518841875373527</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7928879294484383</v>
+      </c>
+      <c r="N64" t="n">
+        <v>9.338916713595241</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>11612618284.61531</v>
+        <v>11944436071.47857</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1039850583567169</v>
+        <v>0.08399110380736574</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0384691052147733</v>
+        <v>0.04800898497035853</v>
       </c>
       <c r="I65" t="n">
-        <v>6.319767784530419</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8148371913641907</v>
+      </c>
+      <c r="N65" t="n">
+        <v>16.29674382728382</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>4183456486.194409</v>
+        <v>12200940204.8177</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2942813685436261</v>
+        <v>0.09982971226422782</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.7130733474470928</v>
+        <v>0.09933687850623935</v>
       </c>
       <c r="I66" t="n">
-        <v>6.443147198978952</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>6.694604865989291</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7853213650791404</v>
+      </c>
+      <c r="N66" t="n">
+        <v>9.011822435593517</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>9168746431.401356</v>
+        <v>10744637024.87779</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.131130249810632</v>
+        <v>0.09385753540720196</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1346993542040118</v>
+        <v>0.07998295238768147</v>
       </c>
       <c r="I67" t="n">
-        <v>6.292350136875189</v>
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.8989338607430817</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.3497742597299844</v>
+      </c>
+      <c r="L67" t="n">
+        <v>6.483855189566919</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.9160586900467789</v>
+      </c>
+      <c r="N67" t="n">
+        <v>11.83731861136866</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>10426783054.67606</v>
+        <v>3565771931.009376</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1120429890862724</v>
+        <v>0.3768460507286625</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.06703463151653491</v>
+        <v>0.9970587438536833</v>
       </c>
       <c r="I68" t="n">
-        <v>6.114135427116197</v>
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.8940906483480753</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.1561171368229896</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4.493567358657769</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.9613856855768856</v>
+      </c>
+      <c r="N68" t="n">
+        <v>14.73414635287994</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>9841624021.915123</v>
+        <v>12859793609.44983</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1447879086649678</v>
+        <v>0.09573351932299556</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1831160291939118</v>
+        <v>0.08606241972012639</v>
       </c>
       <c r="I69" t="n">
-        <v>7.457600162222446</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6.21522257197211</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7887817159413413</v>
+      </c>
+      <c r="N69" t="n">
+        <v>9.560411746854715</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>7000170463.983351</v>
+        <v>11593454225.65617</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1897140557980501</v>
+        <v>0.091052601705533</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3423801232447253</v>
+        <v>0.07089305419324175</v>
       </c>
       <c r="I70" t="n">
-        <v>6.950373680600699</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>6.199976148179558</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7391008962604056</v>
+      </c>
+      <c r="N70" t="n">
+        <v>8.582041777028554</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>5092835107.798983</v>
+        <v>10234983052.62308</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2144749647062622</v>
+        <v>0.1466451348559233</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.4301580427146373</v>
+        <v>0.2510507764265292</v>
       </c>
       <c r="I71" t="n">
-        <v>5.39521828160641</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>7.012187914207633</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8533155505486315</v>
+      </c>
+      <c r="N71" t="n">
+        <v>10.054123096765</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>9447739038.567492</v>
+        <v>6216187702.520905</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1294759650966688</v>
+        <v>0.2241752576800207</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1288348816621979</v>
+        <v>0.5023012509222818</v>
       </c>
       <c r="I72" t="n">
-        <v>6.402020727496107</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>6.452831540299957</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.8290213903489495</v>
+      </c>
+      <c r="N72" t="n">
+        <v>10.12759626667903</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>5057942619.65438</v>
+        <v>11894171845.05522</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2635991766334244</v>
+        <v>0.1257482832335063</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.6043043607900299</v>
+        <v>0.1833307252470447</v>
       </c>
       <c r="I73" t="n">
-        <v>6.977791328255929</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>6.485276994689229</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8521675347371257</v>
+      </c>
+      <c r="N73" t="n">
+        <v>10.55807370005328</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>8683046437.561171</v>
+        <v>8266009151.727434</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1366552256207072</v>
+        <v>0.1229521164742007</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1542855044349169</v>
+        <v>0.1742692379250301</v>
       </c>
       <c r="I74" t="n">
-        <v>6.2100971939095</v>
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.8895941641634378</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.09960524678184861</v>
+      </c>
+      <c r="L74" t="n">
+        <v>6.233686176618783</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.915157230344437</v>
+      </c>
+      <c r="N74" t="n">
+        <v>12.06945843026996</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>5305966135.873274</v>
+        <v>8016366318.44051</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2804038853435182</v>
+        <v>0.1293950898443711</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6638773907356604</v>
+        <v>0.1951488658354824</v>
       </c>
       <c r="I75" t="n">
-        <v>7.786611934085201</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.9121976199929908</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>6.306774609748616</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.9304979605008784</v>
+      </c>
+      <c r="N75" t="n">
+        <v>12.30318460026895</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>4908869114.30724</v>
+        <v>9568686721.370144</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2369199774771605</v>
+        <v>0.1650688559457647</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.5097260638566897</v>
+        <v>0.310756197973486</v>
       </c>
       <c r="I76" t="n">
-        <v>7.159305975794791</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3689307977591891</v>
+      </c>
+      <c r="L76" t="n">
+        <v>6.503011727596124</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8701193340181086</v>
+      </c>
+      <c r="N76" t="n">
+        <v>10.89937495276605</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>9725564191.059635</v>
+        <v>6631912044.40655</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1400518029845625</v>
+        <v>0.1812901018514015</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1663264394192919</v>
+        <v>0.3633240978070816</v>
       </c>
       <c r="I77" t="n">
-        <v>7.128588390359692</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>6.271520110337745</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7811214130360993</v>
+      </c>
+      <c r="N77" t="n">
+        <v>9.350908150384241</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>7851869636.978604</v>
+        <v>4835765158.478131</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1594611828631678</v>
+        <v>0.2480849629136153</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2351330809792105</v>
+        <v>0.5797850026070791</v>
       </c>
       <c r="I78" t="n">
-        <v>6.55281778959987</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>6.19736818273383</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7804162771741409</v>
+      </c>
+      <c r="N78" t="n">
+        <v>9.410957360748988</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>7833468415.345031</v>
+        <v>4178170768.307872</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1421133897494583</v>
+        <v>0.334149786454378</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1736348059134332</v>
+        <v>0.858693728201009</v>
       </c>
       <c r="I79" t="n">
-        <v>5.825069173197833</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6.49925425577329</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.8296339253534505</v>
+      </c>
+      <c r="N79" t="n">
+        <v>10.09342425129572</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>6963557708.840496</v>
+        <v>5096264263.462267</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1737844691749534</v>
+        <v>0.2888580936734816</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2859094186767102</v>
+        <v>0.7119177540711297</v>
       </c>
       <c r="I80" t="n">
-        <v>6.333476608358033</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>6.656036816453881</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.8469562601815003</v>
+      </c>
+      <c r="N80" t="n">
+        <v>10.28308838717613</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>6747043822.963409</v>
+        <v>10596679505.8181</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1646085884635914</v>
+        <v>0.09566241287597935</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2533807372323743</v>
+        <v>0.08583198633627809</v>
       </c>
       <c r="I81" t="n">
-        <v>5.157288954520101</v>
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.9225338940441246</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.4773721075621812</v>
+      </c>
+      <c r="L81" t="n">
+        <v>6.611453037399116</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.9265358825119808</v>
+      </c>
+      <c r="N81" t="n">
+        <v>11.9192646128405</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>4231081589.912724</v>
+        <v>7605634402.688886</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2711582832000329</v>
+        <v>0.1708230203046147</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.6311015454139025</v>
+        <v>0.329403614910613</v>
       </c>
       <c r="I82" t="n">
-        <v>6.329797916714149</v>
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.907661654428949</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.4048839047423983</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4.742334126577178</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.9539702422278136</v>
+      </c>
+      <c r="N82" t="n">
+        <v>14.3370707179791</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>8438084728.800681</v>
+        <v>4773460345.66778</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1356555980165767</v>
+        <v>0.3116844830082826</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.150741804498031</v>
+        <v>0.7858908234083934</v>
       </c>
       <c r="I83" t="n">
-        <v>6.608249187439227</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>6.56894284256868</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8504387147175214</v>
+      </c>
+      <c r="N83" t="n">
+        <v>10.43983145178175</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>8912660268.105247</v>
+        <v>8201206734.356575</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1545889889835224</v>
+        <v>0.1932314354863449</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2178610558045825</v>
+        <v>0.4020221629281535</v>
       </c>
       <c r="I84" t="n">
-        <v>7.21084133332538</v>
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3758198018465676</v>
+      </c>
+      <c r="L84" t="n">
+        <v>6.509900731683502</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.871212957925701</v>
+      </c>
+      <c r="N84" t="n">
+        <v>10.91435842683052</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>8488637923.073718</v>
+        <v>13982188537.96333</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.149042211655776</v>
+        <v>0.08992206024015907</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1981976187555904</v>
+        <v>0.06722932880154101</v>
       </c>
       <c r="I85" t="n">
-        <v>6.621361908737944</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>6.224276921348785</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7955980796701779</v>
+      </c>
+      <c r="N85" t="n">
+        <v>9.687684672054775</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>7463069291.204624</v>
+        <v>4457122142.561686</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1804038536245027</v>
+        <v>0.346147280835629</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3093752695187293</v>
+        <v>0.8975737924424717</v>
       </c>
       <c r="I86" t="n">
-        <v>7.046335447394003</v>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2591852001149781</v>
+      </c>
+      <c r="L86" t="n">
+        <v>6.393266129951913</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8623725882269968</v>
+      </c>
+      <c r="N86" t="n">
+        <v>10.85418563458802</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>10588357006.45526</v>
+        <v>12489515326.88012</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1026643557010096</v>
+        <v>0.1245779054893612</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.03378718777038075</v>
+        <v>0.1795379031432685</v>
       </c>
       <c r="I87" t="n">
-        <v>5.883156851332456</v>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2771773889371906</v>
+      </c>
+      <c r="L87" t="n">
+        <v>6.411258318774125</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8651578842620847</v>
+      </c>
+      <c r="N87" t="n">
+        <v>10.89189936646757</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>4851034337.987733</v>
+        <v>7411700838.335916</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2424444001127939</v>
+        <v>0.156208460818009</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5293102530730862</v>
+        <v>0.2820424748555785</v>
       </c>
       <c r="I88" t="n">
-        <v>6.155261898599041</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>6.382098558344094</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7689261299580614</v>
+      </c>
+      <c r="N88" t="n">
+        <v>8.996424040817136</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>4078064264.851633</v>
+        <v>12577563382.76121</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3269368561675932</v>
+        <v>0.1203736664984807</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.8288377070484734</v>
+        <v>0.165913301467493</v>
       </c>
       <c r="I89" t="n">
-        <v>6.977791328255929</v>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1749945301878775</v>
+      </c>
+      <c r="L89" t="n">
+        <v>6.309075460024812</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8561699320488702</v>
+      </c>
+      <c r="N89" t="n">
+        <v>10.81432318095259</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>5614392805.12214</v>
+        <v>9979463371.279701</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2127463968873505</v>
+        <v>0.1131280358470047</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4240302350736023</v>
+        <v>0.1424325165429721</v>
       </c>
       <c r="I90" t="n">
-        <v>6.251223665392345</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>6.649741775205741</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7607880065263936</v>
+      </c>
+      <c r="N90" t="n">
+        <v>8.566018355322129</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>7081417795.907435</v>
+        <v>6289455941.490505</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1779201038989889</v>
+        <v>0.1890788441898485</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3005703268489045</v>
+        <v>0.3885649350065774</v>
       </c>
       <c r="I91" t="n">
-        <v>6.593944261082714</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>6.171868656693302</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7775807592538322</v>
+      </c>
+      <c r="N91" t="n">
+        <v>9.379746528383341</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>9962515663.38118</v>
+        <v>10745572314.41446</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1443455808341426</v>
+        <v>0.09238677856816381</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1815479681482771</v>
+        <v>0.07521669715402726</v>
       </c>
       <c r="I92" t="n">
-        <v>7.52614428136052</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.8122747888748628</v>
+      </c>
+      <c r="N92" t="n">
+        <v>16.24549577749726</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>10175924212.65818</v>
+        <v>11688027296.23661</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1238144628114205</v>
+        <v>0.08874709253408312</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1087647423342984</v>
+        <v>0.06342163209069544</v>
       </c>
       <c r="I93" t="n">
-        <v>6.593944261082714</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>6.5554508219441</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.733440688993548</v>
+      </c>
+      <c r="N93" t="n">
+        <v>8.11336295792686</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>9563713028.063133</v>
+        <v>12012652883.04654</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1243453307842342</v>
+        <v>0.1116429229294334</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1106466799618519</v>
+        <v>0.1376197378238394</v>
       </c>
       <c r="I94" t="n">
-        <v>6.223806017737116</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>6.615254341879615</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.8165424431243479</v>
+      </c>
+      <c r="N94" t="n">
+        <v>9.715594520607342</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>5920198038.484381</v>
+        <v>11331709278.02464</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2579481902586744</v>
+        <v>0.1165025088104038</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5842715005760876</v>
+        <v>0.1533681103785542</v>
       </c>
       <c r="I95" t="n">
-        <v>7.992244291499423</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>6.60183686372274</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.8114239313742971</v>
+      </c>
+      <c r="N95" t="n">
+        <v>9.626641763763201</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>5680001407.061164</v>
+        <v>10815528500.18213</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2743902577317121</v>
+        <v>0.1399845989934292</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.6425589600517168</v>
+        <v>0.2294660976605169</v>
       </c>
       <c r="I96" t="n">
-        <v>8.156750177430801</v>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2259963492218017</v>
+      </c>
+      <c r="L96" t="n">
+        <v>6.360077279058737</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8561699320488702</v>
+      </c>
+      <c r="N96" t="n">
+        <v>10.76332136191867</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>4233833462.242525</v>
+        <v>12511777846.59813</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3705895907320227</v>
+        <v>0.1214252857289241</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.9835875279634527</v>
+        <v>0.1693212649920347</v>
       </c>
       <c r="I97" t="n">
-        <v>8.211585472741261</v>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.1253997615578458</v>
+      </c>
+      <c r="L97" t="n">
+        <v>6.25948069139478</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.857305492150123</v>
+      </c>
+      <c r="N97" t="n">
+        <v>10.88662915160768</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>5096460160.309922</v>
+        <v>10385912941.95633</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2096967476215904</v>
+        <v>0.1066831559432745</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4132191671659704</v>
+        <v>0.1215467101635057</v>
       </c>
       <c r="I98" t="n">
-        <v>3.753898539102596</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>6.261126499477401</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7547392477913583</v>
+      </c>
+      <c r="N98" t="n">
+        <v>8.833658456349765</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>10443721656.23348</v>
+        <v>8075202701.605085</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1336817387474797</v>
+        <v>0.1352641748278207</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1437444337387422</v>
+        <v>0.2141687039736631</v>
       </c>
       <c r="I99" t="n">
-        <v>7.306803100118684</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>6.328232642441108</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7501273207320374</v>
+      </c>
+      <c r="N99" t="n">
+        <v>8.674313772199639</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>4868233831.614219</v>
+        <v>11964537059.80964</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2394356126508201</v>
+        <v>0.109902604123065</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5186440410806977</v>
+        <v>0.1319799179712902</v>
       </c>
       <c r="I100" t="n">
-        <v>6.100426603288582</v>
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9596514219428883</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.1166275062276719</v>
+      </c>
+      <c r="L100" t="n">
+        <v>6.250708436064606</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1.030279465410562</v>
+      </c>
+      <c r="N100" t="n">
+        <v>14.35488087214663</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>10363311747.85449</v>
+        <v>4188209802.74194</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1640386925880085</v>
+        <v>0.3777536547868786</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.251360444905522</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>8.897026664121999</v>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.1970149540076206</v>
+      </c>
+      <c r="L101" t="n">
+        <v>6.331095883844555</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8706665466272165</v>
+      </c>
+      <c r="N101" t="n">
+        <v>11.08223504869978</v>
       </c>
     </row>
   </sheetData>
